--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1261479.154286713</v>
+        <v>-1264152.710175846</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9514625.964162868</v>
+        <v>9514625.964162869</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>2.93503414940194e-12</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.45269366990601e-12</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>375.9089488089463</v>
+        <v>308.4330191164419</v>
       </c>
       <c r="H11" t="n">
-        <v>294.803427249607</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.6231253887476</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>250.9967003884377</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>110.3563183136614</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>95.83312049632345</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0343782699241</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>89.31749152360085</v>
       </c>
       <c r="S13" t="n">
-        <v>189.9183772485996</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5855665954515</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>242.2243803919447</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>410.9408310226502</v>
       </c>
       <c r="H14" t="n">
-        <v>294.803427249607</v>
+        <v>182.3447660208678</v>
       </c>
       <c r="I14" t="n">
         <v>42.31348951888498</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0343782699241</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.8312101021039</v>
       </c>
       <c r="I16" t="n">
-        <v>96.61014401023337</v>
+        <v>96.10467684356225</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>189.9183772485996</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5855665954515</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2123056607526</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.00199688232408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C17" t="n">
-        <v>317.9101343021917</v>
+        <v>317.9101343021916</v>
       </c>
       <c r="D17" t="n">
-        <v>307.3202841518671</v>
+        <v>307.320284151867</v>
       </c>
       <c r="E17" t="n">
-        <v>334.5676126034459</v>
+        <v>286.124057704853</v>
       </c>
       <c r="F17" t="n">
-        <v>359.5132882728956</v>
+        <v>359.5132882728955</v>
       </c>
       <c r="G17" t="n">
-        <v>363.5780735538344</v>
+        <v>363.5780735538343</v>
       </c>
       <c r="H17" t="n">
-        <v>247.4406697807912</v>
+        <v>247.4406697807911</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13.81681302133798</v>
+        <v>62.26036791993164</v>
       </c>
       <c r="T17" t="n">
         <v>156.6388464244632</v>
@@ -1904,10 +1904,10 @@
         <v>280.389501001319</v>
       </c>
       <c r="W17" t="n">
-        <v>301.8782112485972</v>
+        <v>301.8782112485971</v>
       </c>
       <c r="X17" t="n">
-        <v>322.3683432096532</v>
+        <v>322.3683432096531</v>
       </c>
       <c r="Y17" t="n">
         <v>338.8751811872377</v>
@@ -2005,22 +2005,22 @@
         <v>119.8840636298119</v>
       </c>
       <c r="D19" t="n">
-        <v>101.2527155493965</v>
+        <v>101.2527155493964</v>
       </c>
       <c r="E19" t="n">
-        <v>99.07120517775328</v>
+        <v>99.07120517775326</v>
       </c>
       <c r="F19" t="n">
-        <v>98.05829055411536</v>
+        <v>98.05829055411533</v>
       </c>
       <c r="G19" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H19" t="n">
-        <v>97.46845263328802</v>
+        <v>97.468452633288</v>
       </c>
       <c r="I19" t="n">
-        <v>49.24738654141749</v>
+        <v>49.24738654141746</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95473405478496</v>
+        <v>41.95473405478494</v>
       </c>
       <c r="S19" t="n">
         <v>142.5556197797837</v>
@@ -2065,7 +2065,7 @@
         <v>239.1602408677751</v>
       </c>
       <c r="X19" t="n">
-        <v>178.3468979202213</v>
+        <v>178.3468979202212</v>
       </c>
       <c r="Y19" t="n">
         <v>171.2218958832789</v>
@@ -2081,7 +2081,7 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C20" t="n">
-        <v>317.9101343021917</v>
+        <v>317.9101343021916</v>
       </c>
       <c r="D20" t="n">
         <v>307.3202841518671</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.26036791993167</v>
+        <v>13.81681302133854</v>
       </c>
       <c r="T20" t="n">
         <v>156.6388464244632</v>
       </c>
       <c r="U20" t="n">
-        <v>155.1903880210287</v>
+        <v>203.6339429196218</v>
       </c>
       <c r="V20" t="n">
         <v>280.389501001319</v>
@@ -2318,7 +2318,7 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C23" t="n">
-        <v>317.9101343021917</v>
+        <v>317.9101343021916</v>
       </c>
       <c r="D23" t="n">
         <v>307.3202841518671</v>
@@ -2555,7 +2555,7 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C26" t="n">
-        <v>317.9101343021917</v>
+        <v>317.9101343021916</v>
       </c>
       <c r="D26" t="n">
         <v>307.3202841518671</v>
@@ -2725,13 +2725,13 @@
         <v>98.05829055411536</v>
       </c>
       <c r="G28" t="n">
-        <v>118.6716208011082</v>
+        <v>118.6716208011075</v>
       </c>
       <c r="H28" t="n">
         <v>97.46845263328802</v>
       </c>
       <c r="I28" t="n">
-        <v>49.2473865414167</v>
+        <v>49.24738654141749</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C29" t="n">
-        <v>317.9101343021917</v>
+        <v>317.9101343021916</v>
       </c>
       <c r="D29" t="n">
         <v>307.3202841518671</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.4692227131214</v>
+        <v>132.4692227131211</v>
       </c>
       <c r="C31" t="n">
         <v>119.8840636298119</v>
@@ -2956,7 +2956,7 @@
         <v>101.2527155493965</v>
       </c>
       <c r="E31" t="n">
-        <v>99.07120517775157</v>
+        <v>99.07120517775328</v>
       </c>
       <c r="F31" t="n">
         <v>98.05829055411536</v>
@@ -3041,7 +3041,7 @@
         <v>359.5132882728956</v>
       </c>
       <c r="G32" t="n">
-        <v>363.5780735538343</v>
+        <v>363.5780735538344</v>
       </c>
       <c r="H32" t="n">
         <v>247.4406697807911</v>
@@ -3205,7 +3205,7 @@
         <v>97.46845263328802</v>
       </c>
       <c r="I34" t="n">
-        <v>49.24738654141748</v>
+        <v>49.24738654141749</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3269,16 +3269,16 @@
         <v>317.9101343021916</v>
       </c>
       <c r="D35" t="n">
-        <v>307.320284151867</v>
+        <v>307.3202841518671</v>
       </c>
       <c r="E35" t="n">
         <v>334.5676126034459</v>
       </c>
       <c r="F35" t="n">
-        <v>359.5132882728955</v>
+        <v>359.5132882728956</v>
       </c>
       <c r="G35" t="n">
-        <v>363.5780735538343</v>
+        <v>363.5780735538344</v>
       </c>
       <c r="H35" t="n">
         <v>247.4406697807911</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.26036791993164</v>
+        <v>62.26036791993167</v>
       </c>
       <c r="T35" t="n">
         <v>156.6388464244632</v>
@@ -3326,10 +3326,10 @@
         <v>280.389501001319</v>
       </c>
       <c r="W35" t="n">
-        <v>301.8782112485971</v>
+        <v>301.8782112485972</v>
       </c>
       <c r="X35" t="n">
-        <v>322.3683432096531</v>
+        <v>322.3683432096532</v>
       </c>
       <c r="Y35" t="n">
         <v>338.8751811872377</v>
@@ -3427,22 +3427,22 @@
         <v>119.8840636298119</v>
       </c>
       <c r="D37" t="n">
-        <v>101.2527155493964</v>
+        <v>101.2527155493965</v>
       </c>
       <c r="E37" t="n">
-        <v>99.07120517775326</v>
+        <v>99.07120517775328</v>
       </c>
       <c r="F37" t="n">
-        <v>98.05829055411533</v>
+        <v>98.05829055411536</v>
       </c>
       <c r="G37" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H37" t="n">
-        <v>97.468452633288</v>
+        <v>97.46845263328802</v>
       </c>
       <c r="I37" t="n">
-        <v>49.24738654141746</v>
+        <v>49.24738654141749</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95473405478494</v>
+        <v>41.95473405478496</v>
       </c>
       <c r="S37" t="n">
         <v>142.5556197797837</v>
@@ -3487,7 +3487,7 @@
         <v>239.1602408677751</v>
       </c>
       <c r="X37" t="n">
-        <v>178.3468979202212</v>
+        <v>178.3468979202213</v>
       </c>
       <c r="Y37" t="n">
         <v>171.2218958832789</v>
@@ -3506,16 +3506,16 @@
         <v>317.9101343021916</v>
       </c>
       <c r="D38" t="n">
-        <v>307.320284151867</v>
+        <v>307.3202841518671</v>
       </c>
       <c r="E38" t="n">
         <v>334.5676126034459</v>
       </c>
       <c r="F38" t="n">
-        <v>359.5132882728955</v>
+        <v>359.5132882728956</v>
       </c>
       <c r="G38" t="n">
-        <v>363.5780735538343</v>
+        <v>363.5780735538344</v>
       </c>
       <c r="H38" t="n">
         <v>247.4406697807911</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.26036791993164</v>
+        <v>62.26036791993167</v>
       </c>
       <c r="T38" t="n">
         <v>156.6388464244632</v>
@@ -3563,10 +3563,10 @@
         <v>280.389501001319</v>
       </c>
       <c r="W38" t="n">
-        <v>301.8782112485971</v>
+        <v>301.8782112485972</v>
       </c>
       <c r="X38" t="n">
-        <v>322.3683432096531</v>
+        <v>322.3683432096532</v>
       </c>
       <c r="Y38" t="n">
         <v>338.8751811872377</v>
@@ -3664,22 +3664,22 @@
         <v>119.8840636298119</v>
       </c>
       <c r="D40" t="n">
-        <v>101.2527155493964</v>
+        <v>101.2527155493965</v>
       </c>
       <c r="E40" t="n">
-        <v>99.07120517775326</v>
+        <v>99.07120517775328</v>
       </c>
       <c r="F40" t="n">
-        <v>98.05829055411533</v>
+        <v>98.05829055411536</v>
       </c>
       <c r="G40" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H40" t="n">
-        <v>97.468452633288</v>
+        <v>97.46845263328802</v>
       </c>
       <c r="I40" t="n">
-        <v>49.24738654141746</v>
+        <v>49.24738654141749</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95473405478494</v>
+        <v>41.95473405478496</v>
       </c>
       <c r="S40" t="n">
         <v>142.5556197797837</v>
@@ -3724,7 +3724,7 @@
         <v>239.1602408677751</v>
       </c>
       <c r="X40" t="n">
-        <v>178.3468979202212</v>
+        <v>178.3468979202213</v>
       </c>
       <c r="Y40" t="n">
         <v>171.2218958832789</v>
@@ -3740,19 +3740,19 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C41" t="n">
-        <v>317.9101343021917</v>
+        <v>317.9101343021916</v>
       </c>
       <c r="D41" t="n">
-        <v>307.3202841518671</v>
+        <v>307.320284151867</v>
       </c>
       <c r="E41" t="n">
         <v>334.5676126034459</v>
       </c>
       <c r="F41" t="n">
-        <v>359.5132882728956</v>
+        <v>359.5132882728955</v>
       </c>
       <c r="G41" t="n">
-        <v>363.5780735538344</v>
+        <v>363.5780735538343</v>
       </c>
       <c r="H41" t="n">
         <v>247.4406697807911</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.26036791993167</v>
+        <v>62.26036791993164</v>
       </c>
       <c r="T41" t="n">
         <v>156.6388464244632</v>
@@ -3800,10 +3800,10 @@
         <v>280.389501001319</v>
       </c>
       <c r="W41" t="n">
-        <v>301.8782112485972</v>
+        <v>301.8782112485971</v>
       </c>
       <c r="X41" t="n">
-        <v>322.3683432096532</v>
+        <v>322.3683432096531</v>
       </c>
       <c r="Y41" t="n">
         <v>338.8751811872377</v>
@@ -3901,22 +3901,22 @@
         <v>119.8840636298119</v>
       </c>
       <c r="D43" t="n">
-        <v>101.2527155493965</v>
+        <v>101.2527155493964</v>
       </c>
       <c r="E43" t="n">
-        <v>99.07120517775328</v>
+        <v>99.07120517775326</v>
       </c>
       <c r="F43" t="n">
-        <v>98.05829055411536</v>
+        <v>98.05829055411533</v>
       </c>
       <c r="G43" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H43" t="n">
-        <v>97.46845263328802</v>
+        <v>97.468452633288</v>
       </c>
       <c r="I43" t="n">
-        <v>49.24738654141749</v>
+        <v>49.24738654141746</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95473405478496</v>
+        <v>41.95473405478494</v>
       </c>
       <c r="S43" t="n">
         <v>142.5556197797837</v>
@@ -3961,7 +3961,7 @@
         <v>239.1602408677751</v>
       </c>
       <c r="X43" t="n">
-        <v>178.3468979202213</v>
+        <v>178.3468979202212</v>
       </c>
       <c r="Y43" t="n">
         <v>171.2218958832789</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.26036791993164</v>
+        <v>62.26036791993162</v>
       </c>
       <c r="T44" t="n">
         <v>156.6388464244632</v>
@@ -4141,19 +4141,19 @@
         <v>101.2527155493964</v>
       </c>
       <c r="E46" t="n">
-        <v>99.07120517775326</v>
+        <v>99.07120517775324</v>
       </c>
       <c r="F46" t="n">
-        <v>98.05829055411533</v>
+        <v>98.05829055411532</v>
       </c>
       <c r="G46" t="n">
-        <v>118.6716208011082</v>
+        <v>118.6716208011081</v>
       </c>
       <c r="H46" t="n">
-        <v>97.468452633288</v>
+        <v>97.46845263328798</v>
       </c>
       <c r="I46" t="n">
-        <v>49.24738654141746</v>
+        <v>49.24738654141744</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95473405478494</v>
+        <v>41.95473405478492</v>
       </c>
       <c r="S46" t="n">
         <v>142.5556197797837</v>
       </c>
       <c r="T46" t="n">
-        <v>172.2228091266356</v>
+        <v>172.2228091266355</v>
       </c>
       <c r="U46" t="n">
         <v>238.8495481919367</v>
@@ -4814,13 +4814,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.497163884290888e-12</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2.230922421641373e-12</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>2.964680958991858e-12</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1.467367343339404e-12</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.467367343339404e-12</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.467367343339404e-12</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.467367343339404e-12</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.467367343339404e-12</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.467367343339404e-12</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.467367343339404e-12</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -4896,37 +4896,37 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.497163884290888e-12</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>2.230922421641373e-12</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>2.964680958991858e-12</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>2.216024151165631e-12</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.467367343339404e-12</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.467367343339404e-12</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.467367343339404e-12</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.467367343339404e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.467367343339404e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1.467367343339404e-12</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1.467367343339404e-12</v>
       </c>
     </row>
     <row r="10">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1898.573309751534</v>
+        <v>1490.611177516367</v>
       </c>
       <c r="C11" t="n">
-        <v>1898.573309751534</v>
+        <v>1121.648660575956</v>
       </c>
       <c r="D11" t="n">
-        <v>1540.307611144784</v>
+        <v>763.3829619692049</v>
       </c>
       <c r="E11" t="n">
-        <v>1154.519358546539</v>
+        <v>377.5947093709606</v>
       </c>
       <c r="F11" t="n">
-        <v>743.5334537569317</v>
+        <v>377.5947093709607</v>
       </c>
       <c r="G11" t="n">
-        <v>363.8274448590063</v>
+        <v>66.04620521293857</v>
       </c>
       <c r="H11" t="n">
-        <v>66.04620521293859</v>
+        <v>66.04620521293857</v>
       </c>
       <c r="I11" t="n">
-        <v>66.04620521293859</v>
+        <v>66.04620521293857</v>
       </c>
       <c r="J11" t="n">
-        <v>253.320007286387</v>
+        <v>253.3200072863872</v>
       </c>
       <c r="K11" t="n">
         <v>584.7334091153377</v>
@@ -5051,13 +5051,13 @@
         <v>1562.993517889259</v>
       </c>
       <c r="N11" t="n">
-        <v>2106.397406346729</v>
+        <v>2106.397406346728</v>
       </c>
       <c r="O11" t="n">
-        <v>2606.183027849554</v>
+        <v>2606.183027849553</v>
       </c>
       <c r="P11" t="n">
-        <v>2998.237491994245</v>
+        <v>2998.237491994244</v>
       </c>
       <c r="Q11" t="n">
         <v>3244.481320461456</v>
@@ -5066,25 +5066,25 @@
         <v>3302.310260646929</v>
       </c>
       <c r="S11" t="n">
-        <v>3302.310260646929</v>
+        <v>3191.579830961325</v>
       </c>
       <c r="T11" t="n">
-        <v>3302.310260646929</v>
+        <v>3191.579830961325</v>
       </c>
       <c r="U11" t="n">
-        <v>3048.778240052548</v>
+        <v>2938.047810366943</v>
       </c>
       <c r="V11" t="n">
-        <v>3048.778240052548</v>
+        <v>2606.984923023373</v>
       </c>
       <c r="W11" t="n">
-        <v>3048.778240052548</v>
+        <v>2254.216267753259</v>
       </c>
       <c r="X11" t="n">
-        <v>2675.312481791468</v>
+        <v>1880.750509492179</v>
       </c>
       <c r="Y11" t="n">
-        <v>2285.173149815656</v>
+        <v>1490.611177516367</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3154703925248</v>
+        <v>931.3154703925246</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8624411113979</v>
+        <v>756.8624411113976</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9280314501466</v>
+        <v>607.9280314501464</v>
       </c>
       <c r="E12" t="n">
-        <v>448.690576444691</v>
+        <v>448.6905764446909</v>
       </c>
       <c r="F12" t="n">
-        <v>302.156018471576</v>
+        <v>302.1560184715759</v>
       </c>
       <c r="G12" t="n">
         <v>165.782592775187</v>
       </c>
       <c r="H12" t="n">
-        <v>75.18097554080262</v>
+        <v>75.18097554080261</v>
       </c>
       <c r="I12" t="n">
-        <v>66.04620521293859</v>
+        <v>66.04620521293857</v>
       </c>
       <c r="J12" t="n">
         <v>158.7673518169101</v>
@@ -5124,7 +5124,7 @@
         <v>395.3973844949669</v>
       </c>
       <c r="L12" t="n">
-        <v>765.8414641072892</v>
+        <v>759.8982065455554</v>
       </c>
       <c r="M12" t="n">
         <v>1210.553599219511</v>
@@ -5136,13 +5136,13 @@
         <v>2089.998048031718</v>
       </c>
       <c r="P12" t="n">
-        <v>2398.56515363257</v>
+        <v>2398.565153632569</v>
       </c>
       <c r="Q12" t="n">
-        <v>2554.91489564884</v>
+        <v>2554.914895648839</v>
       </c>
       <c r="R12" t="n">
-        <v>2554.91489564884</v>
+        <v>2554.914895648839</v>
       </c>
       <c r="S12" t="n">
         <v>2425.285216969755</v>
@@ -5157,10 +5157,10 @@
         <v>1769.379963111281</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.14260638308</v>
+        <v>1515.142606383079</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.291106177547</v>
+        <v>1307.291106177546</v>
       </c>
       <c r="Y12" t="n">
         <v>1099.530807412593</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>330.5588302293502</v>
+        <v>212.9361527108489</v>
       </c>
       <c r="C13" t="n">
-        <v>330.5588302293502</v>
+        <v>212.9361527108489</v>
       </c>
       <c r="D13" t="n">
-        <v>330.5588302293502</v>
+        <v>212.9361527108489</v>
       </c>
       <c r="E13" t="n">
-        <v>330.5588302293502</v>
+        <v>212.9361527108489</v>
       </c>
       <c r="F13" t="n">
-        <v>233.7576984148821</v>
+        <v>66.04620521293857</v>
       </c>
       <c r="G13" t="n">
-        <v>66.04620521293859</v>
+        <v>66.04620521293857</v>
       </c>
       <c r="H13" t="n">
-        <v>66.04620521293859</v>
+        <v>66.04620521293857</v>
       </c>
       <c r="I13" t="n">
-        <v>66.04620521293859</v>
+        <v>66.04620521293857</v>
       </c>
       <c r="J13" t="n">
         <v>110.5689968872407</v>
       </c>
       <c r="K13" t="n">
-        <v>313.5704571828761</v>
+        <v>313.5704571828763</v>
       </c>
       <c r="L13" t="n">
-        <v>628.8688700076552</v>
+        <v>628.8688700076555</v>
       </c>
       <c r="M13" t="n">
-        <v>971.6959613263095</v>
+        <v>971.6959613263097</v>
       </c>
       <c r="N13" t="n">
         <v>1311.806007091485</v>
@@ -5221,28 +5221,28 @@
         <v>1918.417599675513</v>
       </c>
       <c r="R13" t="n">
-        <v>1918.417599675513</v>
+        <v>1828.197911267835</v>
       </c>
       <c r="S13" t="n">
-        <v>1726.580854979958</v>
+        <v>1828.197911267835</v>
       </c>
       <c r="T13" t="n">
-        <v>1504.777252358289</v>
+        <v>1606.394308646167</v>
       </c>
       <c r="U13" t="n">
-        <v>1215.673913307024</v>
+        <v>1317.290969594902</v>
       </c>
       <c r="V13" t="n">
-        <v>960.9894251011373</v>
+        <v>1062.606481389015</v>
       </c>
       <c r="W13" t="n">
-        <v>960.9894251011373</v>
+        <v>773.1893113520541</v>
       </c>
       <c r="X13" t="n">
-        <v>732.9998742031199</v>
+        <v>545.1997604540368</v>
       </c>
       <c r="Y13" t="n">
-        <v>512.2072950595899</v>
+        <v>324.4071813105066</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2246.073228994171</v>
+        <v>2246.07322899417</v>
       </c>
       <c r="C14" t="n">
         <v>1877.110712053759</v>
       </c>
       <c r="D14" t="n">
-        <v>1632.439620748764</v>
+        <v>1518.845013447008</v>
       </c>
       <c r="E14" t="n">
-        <v>1246.65136815052</v>
+        <v>1133.056760848764</v>
       </c>
       <c r="F14" t="n">
-        <v>835.665463360913</v>
+        <v>722.0708560591563</v>
       </c>
       <c r="G14" t="n">
-        <v>420.5737148531855</v>
+        <v>306.9791075514288</v>
       </c>
       <c r="H14" t="n">
         <v>122.7924752071178</v>
@@ -5321,7 +5321,7 @@
         <v>3022.812401034104</v>
       </c>
       <c r="Y14" t="n">
-        <v>2632.673069058293</v>
+        <v>2632.673069058292</v>
       </c>
     </row>
     <row r="15">
@@ -5355,7 +5355,7 @@
         <v>80.0515767031936</v>
       </c>
       <c r="J15" t="n">
-        <v>178.7159808688987</v>
+        <v>172.7727233071652</v>
       </c>
       <c r="K15" t="n">
         <v>415.3460135469554</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>638.5331730720751</v>
+        <v>787.1603834848041</v>
       </c>
       <c r="C16" t="n">
-        <v>638.5331730720751</v>
+        <v>618.2242005568972</v>
       </c>
       <c r="D16" t="n">
-        <v>638.5331730720751</v>
+        <v>618.2242005568972</v>
       </c>
       <c r="E16" t="n">
-        <v>638.5331730720751</v>
+        <v>470.3111069745041</v>
       </c>
       <c r="F16" t="n">
-        <v>491.6432255741647</v>
+        <v>323.4211594765937</v>
       </c>
       <c r="G16" t="n">
-        <v>323.9317323722212</v>
+        <v>323.4211594765937</v>
       </c>
       <c r="H16" t="n">
-        <v>177.6375807539344</v>
+        <v>177.127007858307</v>
       </c>
       <c r="I16" t="n">
         <v>80.0515767031936</v>
@@ -5455,31 +5455,31 @@
         <v>1855.523120346509</v>
       </c>
       <c r="Q16" t="n">
-        <v>1932.422971165768</v>
+        <v>1932.422971165769</v>
       </c>
       <c r="R16" t="n">
-        <v>1932.422971165768</v>
+        <v>1932.422971165769</v>
       </c>
       <c r="S16" t="n">
         <v>1740.586226470213</v>
       </c>
       <c r="T16" t="n">
-        <v>1518.782623848545</v>
+        <v>1740.586226470213</v>
       </c>
       <c r="U16" t="n">
-        <v>1229.679284797279</v>
+        <v>1451.482887418948</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.679284797279</v>
+        <v>1196.798399213061</v>
       </c>
       <c r="W16" t="n">
-        <v>940.2621147603188</v>
+        <v>1196.798399213061</v>
       </c>
       <c r="X16" t="n">
-        <v>712.2725638623015</v>
+        <v>968.8088483150439</v>
       </c>
       <c r="Y16" t="n">
-        <v>638.5331730720751</v>
+        <v>968.8088483150439</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2029.879922829482</v>
+        <v>1980.94703909353</v>
       </c>
       <c r="C17" t="n">
-        <v>1708.75857504949</v>
+        <v>1659.825691313538</v>
       </c>
       <c r="D17" t="n">
-        <v>1398.334045603159</v>
+        <v>1349.401161867208</v>
       </c>
       <c r="E17" t="n">
-        <v>1060.386962165335</v>
+        <v>1060.386962165336</v>
       </c>
       <c r="F17" t="n">
-        <v>697.2422265361483</v>
+        <v>697.2422265361486</v>
       </c>
       <c r="G17" t="n">
-        <v>329.9916471888413</v>
+        <v>329.9916471888412</v>
       </c>
       <c r="H17" t="n">
         <v>80.0515767031936</v>
@@ -5513,22 +5513,22 @@
         <v>80.0515767031936</v>
       </c>
       <c r="J17" t="n">
-        <v>434.7310277969951</v>
+        <v>359.7567642818121</v>
       </c>
       <c r="K17" t="n">
-        <v>766.1444296259458</v>
+        <v>691.1701661107627</v>
       </c>
       <c r="L17" t="n">
-        <v>1214.193822030328</v>
+        <v>1139.219558515145</v>
       </c>
       <c r="M17" t="n">
-        <v>1744.404538399868</v>
+        <v>1669.430274884684</v>
       </c>
       <c r="N17" t="n">
-        <v>2287.808426857337</v>
+        <v>2212.834163342154</v>
       </c>
       <c r="O17" t="n">
-        <v>2787.594048360161</v>
+        <v>2712.619784844978</v>
       </c>
       <c r="P17" t="n">
         <v>3423.254970079437</v>
@@ -5540,25 +5540,25 @@
         <v>4002.57883515968</v>
       </c>
       <c r="S17" t="n">
-        <v>3988.622458370448</v>
+        <v>3939.689574634496</v>
       </c>
       <c r="T17" t="n">
-        <v>3830.401401376041</v>
+        <v>3781.468517640089</v>
       </c>
       <c r="U17" t="n">
-        <v>3624.71054994208</v>
+        <v>3575.777666206127</v>
       </c>
       <c r="V17" t="n">
-        <v>3341.488831758929</v>
+        <v>3292.555948022977</v>
       </c>
       <c r="W17" t="n">
-        <v>3036.561345649235</v>
+        <v>2987.628461913283</v>
       </c>
       <c r="X17" t="n">
-        <v>2710.936756548575</v>
+        <v>2662.003872812623</v>
       </c>
       <c r="Y17" t="n">
-        <v>2368.638593733183</v>
+        <v>2319.705709997231</v>
       </c>
     </row>
     <row r="18">
@@ -5601,19 +5601,19 @@
         <v>773.9035780358104</v>
       </c>
       <c r="M18" t="n">
-        <v>1224.558970709766</v>
+        <v>1218.615713148033</v>
       </c>
       <c r="N18" t="n">
-        <v>1695.449957671899</v>
+        <v>1689.506700110165</v>
       </c>
       <c r="O18" t="n">
-        <v>2104.003419521973</v>
+        <v>2098.060161960239</v>
       </c>
       <c r="P18" t="n">
-        <v>2412.570525122825</v>
+        <v>2406.627267561091</v>
       </c>
       <c r="Q18" t="n">
-        <v>2568.920267139094</v>
+        <v>2562.977009577361</v>
       </c>
       <c r="R18" t="n">
         <v>2568.920267139094</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>770.6109048717701</v>
+        <v>770.6109048717695</v>
       </c>
       <c r="C19" t="n">
-        <v>649.5158911042834</v>
+        <v>649.5158911042828</v>
       </c>
       <c r="D19" t="n">
-        <v>547.2404208523677</v>
+        <v>547.2404208523672</v>
       </c>
       <c r="E19" t="n">
-        <v>447.1684964303947</v>
+        <v>447.1684964303942</v>
       </c>
       <c r="F19" t="n">
-        <v>348.1197180929044</v>
+        <v>348.1197180929039</v>
       </c>
       <c r="G19" t="n">
-        <v>228.249394051381</v>
+        <v>228.2493940513805</v>
       </c>
       <c r="H19" t="n">
         <v>129.7964115935143</v>
@@ -5674,7 +5674,7 @@
         <v>171.4634982716235</v>
       </c>
       <c r="K19" t="n">
-        <v>421.3540884613869</v>
+        <v>421.3540884613868</v>
       </c>
       <c r="L19" t="n">
         <v>783.5416311802937</v>
@@ -5695,7 +5695,7 @@
         <v>2307.53601031879</v>
       </c>
       <c r="R19" t="n">
-        <v>2265.157491071533</v>
+        <v>2265.157491071532</v>
       </c>
       <c r="S19" t="n">
         <v>2121.161915536397</v>
@@ -5707,16 +5707,16 @@
         <v>1705.937312184304</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.093993138838</v>
+        <v>1499.093993138837</v>
       </c>
       <c r="W19" t="n">
-        <v>1257.517992262297</v>
+        <v>1257.517992262296</v>
       </c>
       <c r="X19" t="n">
-        <v>1077.3696105247</v>
+        <v>1077.369610524699</v>
       </c>
       <c r="Y19" t="n">
-        <v>904.4182005415897</v>
+        <v>904.4182005415892</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2029.879922829482</v>
       </c>
       <c r="C20" t="n">
-        <v>1708.758575049491</v>
+        <v>1708.75857504949</v>
       </c>
       <c r="D20" t="n">
         <v>1398.33404560316</v>
@@ -5753,49 +5753,49 @@
         <v>434.7310277969951</v>
       </c>
       <c r="K20" t="n">
-        <v>766.1444296259458</v>
+        <v>1087.048388071399</v>
       </c>
       <c r="L20" t="n">
-        <v>1214.193822030328</v>
+        <v>1535.097780475781</v>
       </c>
       <c r="M20" t="n">
-        <v>1744.404538399868</v>
+        <v>2065.30849684532</v>
       </c>
       <c r="N20" t="n">
-        <v>2287.808426857337</v>
+        <v>2608.71238530279</v>
       </c>
       <c r="O20" t="n">
-        <v>2787.594048360161</v>
+        <v>3108.498006805614</v>
       </c>
       <c r="P20" t="n">
-        <v>3423.254970079437</v>
+        <v>3698.506066506995</v>
       </c>
       <c r="Q20" t="n">
-        <v>3879.690639299954</v>
+        <v>3944.749894974207</v>
       </c>
       <c r="R20" t="n">
         <v>4002.57883515968</v>
       </c>
       <c r="S20" t="n">
-        <v>3939.689574634496</v>
+        <v>3988.622458370449</v>
       </c>
       <c r="T20" t="n">
-        <v>3781.468517640089</v>
+        <v>3830.401401376042</v>
       </c>
       <c r="U20" t="n">
         <v>3624.71054994208</v>
       </c>
       <c r="V20" t="n">
-        <v>3341.48883175893</v>
+        <v>3341.488831758929</v>
       </c>
       <c r="W20" t="n">
-        <v>3036.561345649236</v>
+        <v>3036.561345649235</v>
       </c>
       <c r="X20" t="n">
-        <v>2710.936756548576</v>
+        <v>2710.936756548575</v>
       </c>
       <c r="Y20" t="n">
-        <v>2368.638593733184</v>
+        <v>2368.638593733183</v>
       </c>
     </row>
     <row r="21">
@@ -5844,13 +5844,13 @@
         <v>1689.506700110165</v>
       </c>
       <c r="O21" t="n">
-        <v>2098.060161960239</v>
+        <v>2104.003419521973</v>
       </c>
       <c r="P21" t="n">
-        <v>2406.627267561091</v>
+        <v>2412.570525122825</v>
       </c>
       <c r="Q21" t="n">
-        <v>2562.977009577361</v>
+        <v>2568.920267139094</v>
       </c>
       <c r="R21" t="n">
         <v>2568.920267139094</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2030.878553109808</v>
+        <v>2030.878553109807</v>
       </c>
       <c r="C23" t="n">
-        <v>1709.757205329817</v>
+        <v>1709.757205329816</v>
       </c>
       <c r="D23" t="n">
-        <v>1399.332675883486</v>
+        <v>1399.332675883485</v>
       </c>
       <c r="E23" t="n">
-        <v>1061.385592445662</v>
+        <v>1061.385592445661</v>
       </c>
       <c r="F23" t="n">
-        <v>698.2408568164747</v>
+        <v>698.2408568164738</v>
       </c>
       <c r="G23" t="n">
         <v>330.9902774691668</v>
       </c>
       <c r="H23" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="I23" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J23" t="n">
         <v>435.7296580773207</v>
@@ -6005,22 +6005,22 @@
         <v>2788.592678640487</v>
       </c>
       <c r="P23" t="n">
-        <v>3473.186484095715</v>
+        <v>3473.186484095714</v>
       </c>
       <c r="Q23" t="n">
         <v>3929.622153316232</v>
       </c>
       <c r="R23" t="n">
-        <v>4052.510349175958</v>
+        <v>4052.510349175957</v>
       </c>
       <c r="S23" t="n">
-        <v>3989.621088650775</v>
+        <v>3989.621088650774</v>
       </c>
       <c r="T23" t="n">
         <v>3831.400031656367</v>
       </c>
       <c r="U23" t="n">
-        <v>3625.709180222406</v>
+        <v>3625.709180222405</v>
       </c>
       <c r="V23" t="n">
         <v>3342.487462039255</v>
@@ -6032,7 +6032,7 @@
         <v>2711.935386828901</v>
       </c>
       <c r="Y23" t="n">
-        <v>2369.63722401351</v>
+        <v>2369.637224013509</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>180.7865945457676</v>
       </c>
       <c r="H24" t="n">
-        <v>90.18497731138319</v>
+        <v>90.18497731138318</v>
       </c>
       <c r="I24" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J24" t="n">
         <v>173.7713535874907</v>
@@ -6087,7 +6087,7 @@
         <v>2407.625897841417</v>
       </c>
       <c r="Q24" t="n">
-        <v>2563.975639857686</v>
+        <v>2569.91889741942</v>
       </c>
       <c r="R24" t="n">
         <v>2569.91889741942</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>771.609535152096</v>
+        <v>771.6095351520958</v>
       </c>
       <c r="C25" t="n">
-        <v>650.5145213846091</v>
+        <v>650.5145213846089</v>
       </c>
       <c r="D25" t="n">
-        <v>548.2390511326935</v>
+        <v>548.2390511326932</v>
       </c>
       <c r="E25" t="n">
-        <v>448.1671267107205</v>
+        <v>448.1671267107203</v>
       </c>
       <c r="F25" t="n">
-        <v>349.1183483732302</v>
+        <v>349.11834837323</v>
       </c>
       <c r="G25" t="n">
-        <v>229.2480243317068</v>
+        <v>229.2480243317066</v>
       </c>
       <c r="H25" t="n">
-        <v>130.7950418738401</v>
+        <v>130.7950418738399</v>
       </c>
       <c r="I25" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J25" t="n">
         <v>172.462128551949</v>
@@ -6163,7 +6163,7 @@
         <v>1906.275168382567</v>
       </c>
       <c r="P25" t="n">
-        <v>2184.745659885728</v>
+        <v>2184.745659885729</v>
       </c>
       <c r="Q25" t="n">
         <v>2308.534640599116</v>
@@ -6184,13 +6184,13 @@
         <v>1500.092623419163</v>
       </c>
       <c r="W25" t="n">
-        <v>1258.516622542622</v>
+        <v>1258.516622542623</v>
       </c>
       <c r="X25" t="n">
-        <v>1078.368240805026</v>
+        <v>1078.368240805025</v>
       </c>
       <c r="Y25" t="n">
-        <v>905.4168308219156</v>
+        <v>905.4168308219154</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2030.878553109808</v>
+        <v>2030.878553109807</v>
       </c>
       <c r="C26" t="n">
-        <v>1709.757205329817</v>
+        <v>1709.757205329816</v>
       </c>
       <c r="D26" t="n">
-        <v>1399.332675883486</v>
+        <v>1399.332675883485</v>
       </c>
       <c r="E26" t="n">
-        <v>1061.385592445662</v>
+        <v>1061.385592445661</v>
       </c>
       <c r="F26" t="n">
-        <v>698.2408568164747</v>
+        <v>698.2408568164738</v>
       </c>
       <c r="G26" t="n">
         <v>330.9902774691668</v>
       </c>
       <c r="H26" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J26" t="n">
-        <v>268.3240090569677</v>
+        <v>435.7296580773207</v>
       </c>
       <c r="K26" t="n">
-        <v>599.7374108859183</v>
+        <v>1088.047018351724</v>
       </c>
       <c r="L26" t="n">
-        <v>1047.786803290301</v>
+        <v>1536.096410756107</v>
       </c>
       <c r="M26" t="n">
-        <v>2023.015917817744</v>
+        <v>2066.307127125646</v>
       </c>
       <c r="N26" t="n">
-        <v>2566.419806275213</v>
+        <v>2609.711015583115</v>
       </c>
       <c r="O26" t="n">
-        <v>3066.205427778038</v>
+        <v>3291.323860704329</v>
       </c>
       <c r="P26" t="n">
-        <v>3473.186484095715</v>
+        <v>3683.37832484902</v>
       </c>
       <c r="Q26" t="n">
         <v>3929.622153316232</v>
       </c>
       <c r="R26" t="n">
-        <v>4052.510349175958</v>
+        <v>4052.510349175957</v>
       </c>
       <c r="S26" t="n">
-        <v>3989.621088650775</v>
+        <v>3989.621088650774</v>
       </c>
       <c r="T26" t="n">
         <v>3831.400031656367</v>
       </c>
       <c r="U26" t="n">
-        <v>3625.709180222406</v>
+        <v>3625.709180222405</v>
       </c>
       <c r="V26" t="n">
-        <v>3342.487462039255</v>
+        <v>3342.487462039254</v>
       </c>
       <c r="W26" t="n">
-        <v>3037.559975929561</v>
+        <v>3037.55997592956</v>
       </c>
       <c r="X26" t="n">
-        <v>2711.935386828901</v>
+        <v>2711.9353868289</v>
       </c>
       <c r="Y26" t="n">
-        <v>2369.63722401351</v>
+        <v>2369.637224013509</v>
       </c>
     </row>
     <row r="27">
@@ -6297,19 +6297,19 @@
         <v>180.7865945457676</v>
       </c>
       <c r="H27" t="n">
-        <v>90.18497731138319</v>
+        <v>90.18497731138318</v>
       </c>
       <c r="I27" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J27" t="n">
-        <v>173.7713535874907</v>
+        <v>179.7146111492245</v>
       </c>
       <c r="K27" t="n">
-        <v>410.4013862655474</v>
+        <v>416.3446438272813</v>
       </c>
       <c r="L27" t="n">
-        <v>774.9022083161359</v>
+        <v>780.8454658778697</v>
       </c>
       <c r="M27" t="n">
         <v>1225.557600990092</v>
@@ -6367,25 +6367,25 @@
         <v>548.2390511326926</v>
       </c>
       <c r="E28" t="n">
-        <v>448.1671267107196</v>
+        <v>448.1671267107195</v>
       </c>
       <c r="F28" t="n">
         <v>349.1183483732293</v>
       </c>
       <c r="G28" t="n">
-        <v>229.2480243317059</v>
+        <v>229.2480243317065</v>
       </c>
       <c r="H28" t="n">
-        <v>130.7950418738391</v>
+        <v>130.7950418738398</v>
       </c>
       <c r="I28" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J28" t="n">
         <v>172.462128551949</v>
       </c>
       <c r="K28" t="n">
-        <v>422.3527187417121</v>
+        <v>422.3527187417122</v>
       </c>
       <c r="L28" t="n">
         <v>784.540261460619</v>
@@ -6394,16 +6394,16 @@
         <v>1174.256482673401</v>
       </c>
       <c r="N28" t="n">
-        <v>1561.255658332704</v>
+        <v>1561.255658332705</v>
       </c>
       <c r="O28" t="n">
         <v>1906.275168382567</v>
       </c>
       <c r="P28" t="n">
-        <v>2184.745659885728</v>
+        <v>2184.745659885729</v>
       </c>
       <c r="Q28" t="n">
-        <v>2308.534640599115</v>
+        <v>2308.534640599116</v>
       </c>
       <c r="R28" t="n">
         <v>2266.156121351858</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2030.878553109807</v>
+        <v>2030.878553109808</v>
       </c>
       <c r="C29" t="n">
-        <v>1709.757205329816</v>
+        <v>1709.757205329817</v>
       </c>
       <c r="D29" t="n">
         <v>1399.332675883486</v>
@@ -6449,7 +6449,7 @@
         <v>1061.385592445662</v>
       </c>
       <c r="F29" t="n">
-        <v>698.2408568164742</v>
+        <v>698.2408568164744</v>
       </c>
       <c r="G29" t="n">
         <v>330.9902774691668</v>
@@ -6461,25 +6461,25 @@
         <v>81.05020698351916</v>
       </c>
       <c r="J29" t="n">
-        <v>435.7296580773207</v>
+        <v>409.6882782980901</v>
       </c>
       <c r="K29" t="n">
-        <v>767.1430599062713</v>
+        <v>741.1016801270407</v>
       </c>
       <c r="L29" t="n">
-        <v>1215.192452310654</v>
+        <v>1189.151072531423</v>
       </c>
       <c r="M29" t="n">
-        <v>2190.421566838097</v>
+        <v>1719.361788900962</v>
       </c>
       <c r="N29" t="n">
-        <v>2733.825455295566</v>
+        <v>2262.765677358432</v>
       </c>
       <c r="O29" t="n">
-        <v>3233.611076798391</v>
+        <v>2762.551298861256</v>
       </c>
       <c r="P29" t="n">
-        <v>3625.665540943082</v>
+        <v>3473.186484095715</v>
       </c>
       <c r="Q29" t="n">
         <v>3929.622153316232</v>
@@ -6494,19 +6494,19 @@
         <v>3831.400031656367</v>
       </c>
       <c r="U29" t="n">
-        <v>3625.709180222405</v>
+        <v>3625.709180222406</v>
       </c>
       <c r="V29" t="n">
-        <v>3342.487462039254</v>
+        <v>3342.487462039255</v>
       </c>
       <c r="W29" t="n">
-        <v>3037.55997592956</v>
+        <v>3037.559975929561</v>
       </c>
       <c r="X29" t="n">
-        <v>2711.9353868289</v>
+        <v>2711.935386828901</v>
       </c>
       <c r="Y29" t="n">
-        <v>2369.637224013509</v>
+        <v>2369.63722401351</v>
       </c>
     </row>
     <row r="30">
@@ -6540,7 +6540,7 @@
         <v>81.05020698351916</v>
       </c>
       <c r="J30" t="n">
-        <v>173.7713535874907</v>
+        <v>179.7146111492245</v>
       </c>
       <c r="K30" t="n">
         <v>416.3446438272813</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>771.6095351520939</v>
+        <v>771.6095351520958</v>
       </c>
       <c r="C31" t="n">
-        <v>650.5145213846071</v>
+        <v>650.5145213846089</v>
       </c>
       <c r="D31" t="n">
-        <v>548.2390511326914</v>
+        <v>548.2390511326932</v>
       </c>
       <c r="E31" t="n">
         <v>448.1671267107202</v>
@@ -6619,19 +6619,19 @@
         <v>81.05020698351916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.462128551949</v>
+        <v>172.4621285519492</v>
       </c>
       <c r="K31" t="n">
-        <v>422.3527187417121</v>
+        <v>422.3527187417123</v>
       </c>
       <c r="L31" t="n">
-        <v>784.5402614606189</v>
+        <v>784.5402614606191</v>
       </c>
       <c r="M31" t="n">
         <v>1174.256482673401</v>
       </c>
       <c r="N31" t="n">
-        <v>1561.255658332704</v>
+        <v>1561.255658332705</v>
       </c>
       <c r="O31" t="n">
         <v>1906.275168382567</v>
@@ -6646,25 +6646,25 @@
         <v>2266.156121351858</v>
       </c>
       <c r="S31" t="n">
-        <v>2122.160545816722</v>
+        <v>2122.160545816723</v>
       </c>
       <c r="T31" t="n">
-        <v>1948.198112355474</v>
+        <v>1948.198112355475</v>
       </c>
       <c r="U31" t="n">
-        <v>1706.935942464629</v>
+        <v>1706.93594246463</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.092623419162</v>
+        <v>1500.092623419163</v>
       </c>
       <c r="W31" t="n">
         <v>1258.516622542622</v>
       </c>
       <c r="X31" t="n">
-        <v>1078.368240805024</v>
+        <v>1078.368240805025</v>
       </c>
       <c r="Y31" t="n">
-        <v>905.4168308219135</v>
+        <v>905.416830821915</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6701,25 @@
         <v>435.7296580773207</v>
       </c>
       <c r="K32" t="n">
-        <v>1088.047018351724</v>
+        <v>767.1430599062713</v>
       </c>
       <c r="L32" t="n">
-        <v>1536.096410756107</v>
+        <v>1215.192452310654</v>
       </c>
       <c r="M32" t="n">
-        <v>2066.307127125646</v>
+        <v>1745.403168680193</v>
       </c>
       <c r="N32" t="n">
-        <v>2609.711015583115</v>
+        <v>2288.807057137662</v>
       </c>
       <c r="O32" t="n">
-        <v>3109.49663708594</v>
+        <v>2788.592678640487</v>
       </c>
       <c r="P32" t="n">
-        <v>3501.551101230631</v>
+        <v>3499.227863874946</v>
       </c>
       <c r="Q32" t="n">
-        <v>3929.622153316232</v>
+        <v>3955.663533095463</v>
       </c>
       <c r="R32" t="n">
         <v>4052.510349175958</v>
@@ -6783,16 +6783,16 @@
         <v>410.4013862655474</v>
       </c>
       <c r="L33" t="n">
-        <v>780.8454658778697</v>
+        <v>774.9022083161359</v>
       </c>
       <c r="M33" t="n">
-        <v>1225.557600990092</v>
+        <v>1219.614343428358</v>
       </c>
       <c r="N33" t="n">
-        <v>1696.448587952225</v>
+        <v>1690.505330390491</v>
       </c>
       <c r="O33" t="n">
-        <v>2105.002049802299</v>
+        <v>2099.058792240565</v>
       </c>
       <c r="P33" t="n">
         <v>2413.56915540315</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>771.6095351520955</v>
+        <v>771.6095351520958</v>
       </c>
       <c r="C34" t="n">
-        <v>650.5145213846088</v>
+        <v>650.5145213846089</v>
       </c>
       <c r="D34" t="n">
-        <v>548.2390511326931</v>
+        <v>548.2390511326932</v>
       </c>
       <c r="E34" t="n">
-        <v>448.1671267107201</v>
+        <v>448.1671267107203</v>
       </c>
       <c r="F34" t="n">
-        <v>349.1183483732299</v>
+        <v>349.11834837323</v>
       </c>
       <c r="G34" t="n">
-        <v>229.2480243317065</v>
+        <v>229.2480243317066</v>
       </c>
       <c r="H34" t="n">
-        <v>130.7950418738398</v>
+        <v>130.7950418738399</v>
       </c>
       <c r="I34" t="n">
         <v>81.05020698351916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.462128551949</v>
+        <v>172.4621285519493</v>
       </c>
       <c r="K34" t="n">
-        <v>422.3527187417121</v>
+        <v>422.3527187417125</v>
       </c>
       <c r="L34" t="n">
-        <v>784.540261460619</v>
+        <v>784.5402614606191</v>
       </c>
       <c r="M34" t="n">
         <v>1174.256482673401</v>
@@ -6883,7 +6883,7 @@
         <v>2266.156121351858</v>
       </c>
       <c r="S34" t="n">
-        <v>2122.160545816723</v>
+        <v>2122.160545816722</v>
       </c>
       <c r="T34" t="n">
         <v>1948.198112355475</v>
@@ -6901,7 +6901,7 @@
         <v>1078.368240805025</v>
       </c>
       <c r="Y34" t="n">
-        <v>905.4168308219151</v>
+        <v>905.4168308219154</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2030.878553109808</v>
+        <v>2030.878553109807</v>
       </c>
       <c r="C35" t="n">
         <v>1709.757205329816</v>
       </c>
       <c r="D35" t="n">
-        <v>1399.332675883486</v>
+        <v>1399.332675883485</v>
       </c>
       <c r="E35" t="n">
-        <v>1061.385592445662</v>
+        <v>1061.385592445661</v>
       </c>
       <c r="F35" t="n">
-        <v>698.2408568164742</v>
+        <v>698.2408568164738</v>
       </c>
       <c r="G35" t="n">
         <v>330.9902774691668</v>
@@ -6935,28 +6935,28 @@
         <v>81.05020698351915</v>
       </c>
       <c r="J35" t="n">
-        <v>268.3240090569677</v>
+        <v>409.6882782980892</v>
       </c>
       <c r="K35" t="n">
-        <v>920.6413693313714</v>
+        <v>741.1016801270398</v>
       </c>
       <c r="L35" t="n">
-        <v>1368.690761735754</v>
+        <v>1189.151072531422</v>
       </c>
       <c r="M35" t="n">
-        <v>1898.901478105293</v>
+        <v>1719.361788900962</v>
       </c>
       <c r="N35" t="n">
-        <v>2442.305366562762</v>
+        <v>2262.765677358431</v>
       </c>
       <c r="O35" t="n">
-        <v>2942.090988065587</v>
+        <v>2762.551298861255</v>
       </c>
       <c r="P35" t="n">
-        <v>3652.726173300046</v>
+        <v>3473.186484095714</v>
       </c>
       <c r="Q35" t="n">
-        <v>3994.681408990484</v>
+        <v>3929.622153316232</v>
       </c>
       <c r="R35" t="n">
         <v>4052.510349175957</v>
@@ -6971,10 +6971,10 @@
         <v>3625.709180222405</v>
       </c>
       <c r="V35" t="n">
-        <v>3342.487462039254</v>
+        <v>3342.487462039255</v>
       </c>
       <c r="W35" t="n">
-        <v>3037.55997592956</v>
+        <v>3037.559975929561</v>
       </c>
       <c r="X35" t="n">
         <v>2711.935386828901</v>
@@ -7029,10 +7029,10 @@
         <v>1690.505330390491</v>
       </c>
       <c r="O36" t="n">
-        <v>2099.058792240565</v>
+        <v>2105.002049802299</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.625897841417</v>
+        <v>2413.56915540315</v>
       </c>
       <c r="Q36" t="n">
         <v>2569.91889741942</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>771.6095351520955</v>
+        <v>771.6095351520958</v>
       </c>
       <c r="C37" t="n">
-        <v>650.5145213846088</v>
+        <v>650.5145213846089</v>
       </c>
       <c r="D37" t="n">
-        <v>548.2390511326931</v>
+        <v>548.2390511326932</v>
       </c>
       <c r="E37" t="n">
-        <v>448.1671267107201</v>
+        <v>448.1671267107203</v>
       </c>
       <c r="F37" t="n">
-        <v>349.1183483732299</v>
+        <v>349.11834837323</v>
       </c>
       <c r="G37" t="n">
-        <v>229.2480243317065</v>
+        <v>229.2480243317066</v>
       </c>
       <c r="H37" t="n">
-        <v>130.7950418738398</v>
+        <v>130.7950418738399</v>
       </c>
       <c r="I37" t="n">
         <v>81.05020698351915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.462128551949</v>
+        <v>172.4621285519496</v>
       </c>
       <c r="K37" t="n">
-        <v>422.3527187417123</v>
+        <v>422.3527187417127</v>
       </c>
       <c r="L37" t="n">
-        <v>784.5402614606191</v>
+        <v>784.5402614606196</v>
       </c>
       <c r="M37" t="n">
-        <v>1174.256482673401</v>
+        <v>1174.256482673402</v>
       </c>
       <c r="N37" t="n">
-        <v>1561.255658332704</v>
+        <v>1561.255658332705</v>
       </c>
       <c r="O37" t="n">
-        <v>1906.275168382567</v>
+        <v>1906.275168382568</v>
       </c>
       <c r="P37" t="n">
-        <v>2184.745659885728</v>
+        <v>2184.745659885729</v>
       </c>
       <c r="Q37" t="n">
-        <v>2308.534640599115</v>
+        <v>2308.534640599116</v>
       </c>
       <c r="R37" t="n">
         <v>2266.156121351858</v>
@@ -7132,13 +7132,13 @@
         <v>1500.092623419163</v>
       </c>
       <c r="W37" t="n">
-        <v>1258.516622542622</v>
+        <v>1258.516622542623</v>
       </c>
       <c r="X37" t="n">
         <v>1078.368240805025</v>
       </c>
       <c r="Y37" t="n">
-        <v>905.4168308219151</v>
+        <v>905.4168308219154</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2030.878553109808</v>
+        <v>2030.878553109807</v>
       </c>
       <c r="C38" t="n">
         <v>1709.757205329816</v>
       </c>
       <c r="D38" t="n">
-        <v>1399.332675883486</v>
+        <v>1399.332675883485</v>
       </c>
       <c r="E38" t="n">
-        <v>1061.385592445662</v>
+        <v>1061.385592445661</v>
       </c>
       <c r="F38" t="n">
-        <v>698.2408568164742</v>
+        <v>698.2408568164738</v>
       </c>
       <c r="G38" t="n">
         <v>330.9902774691668</v>
@@ -7172,28 +7172,28 @@
         <v>81.05020698351915</v>
       </c>
       <c r="J38" t="n">
-        <v>268.3240090569677</v>
+        <v>435.7296580773207</v>
       </c>
       <c r="K38" t="n">
-        <v>599.7374108859183</v>
+        <v>767.1430599062713</v>
       </c>
       <c r="L38" t="n">
-        <v>1461.271405695247</v>
+        <v>1215.192452310654</v>
       </c>
       <c r="M38" t="n">
-        <v>1991.482122064786</v>
+        <v>1745.403168680193</v>
       </c>
       <c r="N38" t="n">
-        <v>2534.886010522255</v>
+        <v>2288.807057137662</v>
       </c>
       <c r="O38" t="n">
-        <v>3356.383116378582</v>
+        <v>2788.592678640487</v>
       </c>
       <c r="P38" t="n">
-        <v>3748.437580523273</v>
+        <v>3473.186484095714</v>
       </c>
       <c r="Q38" t="n">
-        <v>3994.681408990484</v>
+        <v>3929.622153316232</v>
       </c>
       <c r="R38" t="n">
         <v>4052.510349175957</v>
@@ -7214,7 +7214,7 @@
         <v>3037.55997592956</v>
       </c>
       <c r="X38" t="n">
-        <v>2711.935386828901</v>
+        <v>2711.9353868289</v>
       </c>
       <c r="Y38" t="n">
         <v>2369.637224013509</v>
@@ -7260,19 +7260,19 @@
         <v>774.9022083161359</v>
       </c>
       <c r="M39" t="n">
-        <v>1219.614343428358</v>
+        <v>1225.557600990092</v>
       </c>
       <c r="N39" t="n">
-        <v>1690.505330390491</v>
+        <v>1696.448587952225</v>
       </c>
       <c r="O39" t="n">
-        <v>2099.058792240565</v>
+        <v>2105.002049802299</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.625897841417</v>
+        <v>2413.56915540315</v>
       </c>
       <c r="Q39" t="n">
-        <v>2563.975639857686</v>
+        <v>2569.91889741942</v>
       </c>
       <c r="R39" t="n">
         <v>2569.91889741942</v>
@@ -7309,19 +7309,19 @@
         <v>771.6095351520955</v>
       </c>
       <c r="C40" t="n">
-        <v>650.5145213846088</v>
+        <v>650.5145213846087</v>
       </c>
       <c r="D40" t="n">
-        <v>548.2390511326931</v>
+        <v>548.239051132693</v>
       </c>
       <c r="E40" t="n">
-        <v>448.1671267107201</v>
+        <v>448.16712671072</v>
       </c>
       <c r="F40" t="n">
-        <v>349.1183483732299</v>
+        <v>349.1183483732298</v>
       </c>
       <c r="G40" t="n">
-        <v>229.2480243317065</v>
+        <v>229.2480243317063</v>
       </c>
       <c r="H40" t="n">
         <v>130.7950418738398</v>
@@ -7333,22 +7333,22 @@
         <v>172.462128551949</v>
       </c>
       <c r="K40" t="n">
-        <v>422.3527187417122</v>
+        <v>422.3527187417123</v>
       </c>
       <c r="L40" t="n">
-        <v>784.5402614606189</v>
+        <v>784.5402614606191</v>
       </c>
       <c r="M40" t="n">
         <v>1174.256482673401</v>
       </c>
       <c r="N40" t="n">
-        <v>1561.255658332705</v>
+        <v>1561.255658332704</v>
       </c>
       <c r="O40" t="n">
         <v>1906.275168382567</v>
       </c>
       <c r="P40" t="n">
-        <v>2184.745659885728</v>
+        <v>2184.745659885729</v>
       </c>
       <c r="Q40" t="n">
         <v>2308.534640599115</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2030.878553109809</v>
+        <v>2030.878553109807</v>
       </c>
       <c r="C41" t="n">
-        <v>1709.757205329817</v>
+        <v>1709.757205329816</v>
       </c>
       <c r="D41" t="n">
-        <v>1399.332675883487</v>
+        <v>1399.332675883486</v>
       </c>
       <c r="E41" t="n">
         <v>1061.385592445662</v>
       </c>
       <c r="F41" t="n">
-        <v>698.2408568164751</v>
+        <v>698.2408568164742</v>
       </c>
       <c r="G41" t="n">
         <v>330.9902774691668</v>
       </c>
       <c r="H41" t="n">
-        <v>81.05020698351917</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.05020698351917</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J41" t="n">
         <v>435.7296580773207</v>
@@ -7427,34 +7427,34 @@
         <v>2788.592678640487</v>
       </c>
       <c r="P41" t="n">
-        <v>3473.186484095716</v>
+        <v>3473.186484095714</v>
       </c>
       <c r="Q41" t="n">
-        <v>3929.622153316233</v>
+        <v>3929.622153316232</v>
       </c>
       <c r="R41" t="n">
-        <v>4052.510349175959</v>
+        <v>4052.510349175957</v>
       </c>
       <c r="S41" t="n">
-        <v>3989.621088650775</v>
+        <v>3989.621088650774</v>
       </c>
       <c r="T41" t="n">
-        <v>3831.400031656368</v>
+        <v>3831.400031656367</v>
       </c>
       <c r="U41" t="n">
-        <v>3625.709180222407</v>
+        <v>3625.709180222405</v>
       </c>
       <c r="V41" t="n">
-        <v>3342.487462039256</v>
+        <v>3342.487462039254</v>
       </c>
       <c r="W41" t="n">
-        <v>3037.559975929562</v>
+        <v>3037.55997592956</v>
       </c>
       <c r="X41" t="n">
-        <v>2711.935386828902</v>
+        <v>2711.9353868289</v>
       </c>
       <c r="Y41" t="n">
-        <v>2369.637224013511</v>
+        <v>2369.637224013509</v>
       </c>
     </row>
     <row r="42">
@@ -7482,19 +7482,19 @@
         <v>180.7865945457676</v>
       </c>
       <c r="H42" t="n">
-        <v>90.18497731138321</v>
+        <v>90.18497731138318</v>
       </c>
       <c r="I42" t="n">
-        <v>81.05020698351917</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J42" t="n">
-        <v>173.7713535874908</v>
+        <v>173.7713535874907</v>
       </c>
       <c r="K42" t="n">
-        <v>410.4013862655475</v>
+        <v>410.4013862655474</v>
       </c>
       <c r="L42" t="n">
-        <v>774.902208316136</v>
+        <v>774.9022083161359</v>
       </c>
       <c r="M42" t="n">
         <v>1219.614343428358</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>771.6095351520958</v>
+        <v>771.6095351520955</v>
       </c>
       <c r="C43" t="n">
-        <v>650.5145213846089</v>
+        <v>650.5145213846088</v>
       </c>
       <c r="D43" t="n">
-        <v>548.2390511326932</v>
+        <v>548.2390511326931</v>
       </c>
       <c r="E43" t="n">
-        <v>448.1671267107203</v>
+        <v>448.1671267107201</v>
       </c>
       <c r="F43" t="n">
-        <v>349.11834837323</v>
+        <v>349.1183483732299</v>
       </c>
       <c r="G43" t="n">
-        <v>229.2480243317066</v>
+        <v>229.2480243317065</v>
       </c>
       <c r="H43" t="n">
-        <v>130.7950418738399</v>
+        <v>130.7950418738398</v>
       </c>
       <c r="I43" t="n">
-        <v>81.05020698351917</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J43" t="n">
         <v>172.462128551949</v>
       </c>
       <c r="K43" t="n">
-        <v>422.3527187417121</v>
+        <v>422.3527187417122</v>
       </c>
       <c r="L43" t="n">
-        <v>784.5402614606196</v>
+        <v>784.540261460619</v>
       </c>
       <c r="M43" t="n">
-        <v>1174.256482673402</v>
+        <v>1174.256482673401</v>
       </c>
       <c r="N43" t="n">
         <v>1561.255658332705</v>
       </c>
       <c r="O43" t="n">
-        <v>1906.275168382568</v>
+        <v>1906.275168382567</v>
       </c>
       <c r="P43" t="n">
-        <v>2184.745659885729</v>
+        <v>2184.745659885728</v>
       </c>
       <c r="Q43" t="n">
-        <v>2308.534640599116</v>
+        <v>2308.534640599115</v>
       </c>
       <c r="R43" t="n">
         <v>2266.156121351858</v>
@@ -7606,13 +7606,13 @@
         <v>1500.092623419163</v>
       </c>
       <c r="W43" t="n">
-        <v>1258.516622542623</v>
+        <v>1258.516622542622</v>
       </c>
       <c r="X43" t="n">
         <v>1078.368240805025</v>
       </c>
       <c r="Y43" t="n">
-        <v>905.4168308219154</v>
+        <v>905.4168308219151</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2030.878553109809</v>
+        <v>2030.878553109808</v>
       </c>
       <c r="C44" t="n">
-        <v>1709.757205329817</v>
+        <v>1709.757205329816</v>
       </c>
       <c r="D44" t="n">
-        <v>1399.332675883487</v>
+        <v>1399.332675883486</v>
       </c>
       <c r="E44" t="n">
-        <v>1061.385592445663</v>
+        <v>1061.385592445662</v>
       </c>
       <c r="F44" t="n">
-        <v>698.2408568164756</v>
+        <v>698.2408568164742</v>
       </c>
       <c r="G44" t="n">
         <v>330.9902774691668</v>
       </c>
       <c r="H44" t="n">
-        <v>81.05020698351917</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.05020698351917</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J44" t="n">
         <v>435.7296580773207</v>
@@ -7664,34 +7664,34 @@
         <v>2788.592678640487</v>
       </c>
       <c r="P44" t="n">
-        <v>3473.186484095716</v>
+        <v>3473.186484095714</v>
       </c>
       <c r="Q44" t="n">
-        <v>3929.622153316233</v>
+        <v>3929.622153316232</v>
       </c>
       <c r="R44" t="n">
-        <v>4052.510349175959</v>
+        <v>4052.510349175957</v>
       </c>
       <c r="S44" t="n">
-        <v>3989.621088650775</v>
+        <v>3989.621088650774</v>
       </c>
       <c r="T44" t="n">
-        <v>3831.400031656368</v>
+        <v>3831.400031656367</v>
       </c>
       <c r="U44" t="n">
-        <v>3625.709180222406</v>
+        <v>3625.709180222405</v>
       </c>
       <c r="V44" t="n">
-        <v>3342.487462039256</v>
+        <v>3342.487462039255</v>
       </c>
       <c r="W44" t="n">
-        <v>3037.559975929562</v>
+        <v>3037.559975929561</v>
       </c>
       <c r="X44" t="n">
-        <v>2711.935386828902</v>
+        <v>2711.935386828901</v>
       </c>
       <c r="Y44" t="n">
-        <v>2369.637224013511</v>
+        <v>2369.637224013509</v>
       </c>
     </row>
     <row r="45">
@@ -7719,19 +7719,19 @@
         <v>180.7865945457676</v>
       </c>
       <c r="H45" t="n">
-        <v>90.18497731138321</v>
+        <v>90.18497731138318</v>
       </c>
       <c r="I45" t="n">
-        <v>81.05020698351917</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J45" t="n">
-        <v>173.7713535874908</v>
+        <v>173.7713535874907</v>
       </c>
       <c r="K45" t="n">
-        <v>410.4013862655475</v>
+        <v>410.4013862655474</v>
       </c>
       <c r="L45" t="n">
-        <v>774.902208316136</v>
+        <v>774.9022083161359</v>
       </c>
       <c r="M45" t="n">
         <v>1219.614343428358</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>771.609535152095</v>
+        <v>771.6095351520956</v>
       </c>
       <c r="C46" t="n">
-        <v>650.5145213846082</v>
+        <v>650.5145213846089</v>
       </c>
       <c r="D46" t="n">
-        <v>548.2390511326926</v>
+        <v>548.2390511326932</v>
       </c>
       <c r="E46" t="n">
-        <v>448.1671267107196</v>
+        <v>448.1671267107203</v>
       </c>
       <c r="F46" t="n">
-        <v>349.1183483732293</v>
+        <v>349.1183483732301</v>
       </c>
       <c r="G46" t="n">
-        <v>229.2480243317059</v>
+        <v>229.2480243317067</v>
       </c>
       <c r="H46" t="n">
-        <v>130.7950418738399</v>
+        <v>130.7950418738398</v>
       </c>
       <c r="I46" t="n">
-        <v>81.05020698351917</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.462128551949</v>
+        <v>172.4621285519491</v>
       </c>
       <c r="K46" t="n">
         <v>422.3527187417122</v>
       </c>
       <c r="L46" t="n">
-        <v>784.540261460619</v>
+        <v>784.5402614606191</v>
       </c>
       <c r="M46" t="n">
-        <v>1174.2564826734</v>
+        <v>1174.256482673401</v>
       </c>
       <c r="N46" t="n">
-        <v>1561.255658332704</v>
+        <v>1561.255658332705</v>
       </c>
       <c r="O46" t="n">
         <v>1906.275168382567</v>
@@ -7831,25 +7831,25 @@
         <v>2266.156121351858</v>
       </c>
       <c r="S46" t="n">
-        <v>2122.160545816722</v>
+        <v>2122.160545816723</v>
       </c>
       <c r="T46" t="n">
-        <v>1948.198112355474</v>
+        <v>1948.198112355475</v>
       </c>
       <c r="U46" t="n">
-        <v>1706.935942464629</v>
+        <v>1706.93594246463</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.092623419162</v>
+        <v>1500.092623419163</v>
       </c>
       <c r="W46" t="n">
         <v>1258.516622542622</v>
       </c>
       <c r="X46" t="n">
-        <v>1078.368240805024</v>
+        <v>1078.368240805025</v>
       </c>
       <c r="Y46" t="n">
-        <v>905.4168308219146</v>
+        <v>905.4168308219153</v>
       </c>
     </row>
   </sheetData>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>220.0898510449813</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
@@ -8462,13 +8462,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>229.4130635965917</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>230.0982114216875</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>231.2329957552703</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>137.8414389743597</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8541,16 +8541,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>131.341712083334</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>142.5962444444459</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>133.974407414331</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>139.9817740860223</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>134.884676281239</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>138.9257839476058</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>127.6855444652339</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>138.4565384518435</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>6.003290466397857</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>6.003290466397345</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>6.003290466397488</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>93.36503586380809</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>246.067128863217</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>6.003290466397459</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.7775875345370196</v>
+        <v>6.780878000934383</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>246.067128863217</v>
+        <v>199.953126824939</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>6.003290466397516</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.780878000934383</v>
+        <v>0.7775875345370196</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>295.494284152058</v>
+        <v>295.4942841520571</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.003290466397829</v>
       </c>
       <c r="R24" t="n">
-        <v>6.780878000934842</v>
+        <v>0.7775875345370196</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>183.6638622407971</v>
       </c>
       <c r="P26" t="n">
-        <v>15.07736583129895</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>6.003290466397814</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>6.0032904663978</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>142.7921911526489</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.29574131912992</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.0032904663978</v>
       </c>
       <c r="K30" t="n">
-        <v>6.0032904663978</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.6638622407979</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>39.41199585355706</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>6.003290466397857</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>6.003290466397914</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>142.792191152648</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>96.67818911437044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>6.003290466397971</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.003290466397829</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0.7775875345370196</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>324.9610953065674</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>295.4942841520571</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>6.0032904663978</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.780878000934842</v>
+        <v>0.7775875345370196</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>295.4942841520589</v>
+        <v>295.4942841520571</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>295.4942841520589</v>
+        <v>295.4942841520571</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23030,10 +23030,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741710696</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>15.30273751513431</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>35.03188221370391</v>
+        <v>102.5078119062083</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.803427249607</v>
       </c>
       <c r="I11" t="n">
-        <v>42.31348951888498</v>
+        <v>42.313489518885</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.6231253887476</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>204.0016038932791</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>69.47566186827591</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>49.5879275266078</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0343782699241</v>
       </c>
       <c r="H13" t="n">
         <v>144.8312101021039</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.31749152360085</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.9183772485996</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>112.4586612287382</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>112.4586612287392</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0343782699241</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.5054671666711315</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5855665954515</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>145.5826564697707</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>48.4435548985929</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>48.44355489859369</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>48.44355489859313</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>48.44355489859313</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>6.963318810448982e-13</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.726618847897043e-12</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -26323,16 +26323,16 @@
         <v>169964.0455190294</v>
       </c>
       <c r="F2" t="n">
-        <v>183484.1168817755</v>
+        <v>183484.1168817756</v>
       </c>
       <c r="G2" t="n">
-        <v>204296.4157235885</v>
+        <v>204296.4157235886</v>
       </c>
       <c r="H2" t="n">
         <v>204296.4157235885</v>
       </c>
       <c r="I2" t="n">
-        <v>205260.4424660707</v>
+        <v>205260.4424660706</v>
       </c>
       <c r="J2" t="n">
         <v>205260.4424660706</v>
@@ -26344,16 +26344,16 @@
         <v>205260.4424660706</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660706</v>
+        <v>205260.4424660705</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660705</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660705</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660706</v>
+        <v>205260.4424660707</v>
       </c>
     </row>
     <row r="3">
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.151148557864551e-10</v>
+        <v>2.302297115729102e-10</v>
       </c>
       <c r="E3" t="n">
         <v>1118211.027744077</v>
       </c>
       <c r="F3" t="n">
-        <v>50161.28839521009</v>
+        <v>50161.28839521013</v>
       </c>
       <c r="G3" t="n">
-        <v>37890.2059750527</v>
+        <v>37890.20597505273</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3319.459534680697</v>
+        <v>3319.459534680636</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37890.20597505271</v>
+        <v>37890.20597505273</v>
       </c>
       <c r="M3" t="n">
-        <v>205737.2315485643</v>
+        <v>205737.2315485641</v>
       </c>
       <c r="N3" t="n">
-        <v>42878.67028742111</v>
+        <v>42878.67028742114</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>414772.398612959</v>
       </c>
       <c r="D4" t="n">
-        <v>414772.3986129589</v>
+        <v>414772.3986129588</v>
       </c>
       <c r="E4" t="n">
-        <v>8779.80781662058</v>
+        <v>8779.807816620572</v>
       </c>
       <c r="F4" t="n">
-        <v>26795.53396675477</v>
+        <v>26795.53396675478</v>
       </c>
       <c r="G4" t="n">
+        <v>74428.36230238143</v>
+      </c>
+      <c r="H4" t="n">
         <v>74428.36230238139</v>
       </c>
-      <c r="H4" t="n">
-        <v>74428.36230238137</v>
-      </c>
       <c r="I4" t="n">
-        <v>75712.9444120452</v>
+        <v>75712.94441204518</v>
       </c>
       <c r="J4" t="n">
         <v>75712.94441204518</v>
       </c>
       <c r="K4" t="n">
+        <v>75712.9444120452</v>
+      </c>
+      <c r="L4" t="n">
         <v>75712.94441204518</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>75712.94441204518</v>
+      </c>
+      <c r="N4" t="n">
+        <v>75712.94441204518</v>
+      </c>
+      <c r="O4" t="n">
         <v>75712.94441204521</v>
       </c>
-      <c r="M4" t="n">
-        <v>75712.94441204521</v>
-      </c>
-      <c r="N4" t="n">
-        <v>75712.94441204521</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>75712.94441204522</v>
-      </c>
-      <c r="P4" t="n">
-        <v>75712.94441204525</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>33627.60000000004</v>
       </c>
       <c r="E5" t="n">
         <v>73848.64439395536</v>
@@ -26488,10 +26488,10 @@
         <v>88474.46638419505</v>
       </c>
       <c r="I5" t="n">
-        <v>89233.42539724248</v>
+        <v>89233.42539724246</v>
       </c>
       <c r="J5" t="n">
-        <v>89233.42539724248</v>
+        <v>89233.42539724246</v>
       </c>
       <c r="K5" t="n">
         <v>89233.42539724248</v>
@@ -26500,16 +26500,16 @@
         <v>89233.42539724248</v>
       </c>
       <c r="M5" t="n">
+        <v>89233.42539724246</v>
+      </c>
+      <c r="N5" t="n">
+        <v>89233.42539724246</v>
+      </c>
+      <c r="O5" t="n">
         <v>89233.42539724248</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>89233.42539724248</v>
-      </c>
-      <c r="O5" t="n">
-        <v>89233.42539724249</v>
-      </c>
-      <c r="P5" t="n">
-        <v>89233.42539724249</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243580.9139336993</v>
+        <v>-243585.3275115674</v>
       </c>
       <c r="C6" t="n">
-        <v>-243580.9139336994</v>
+        <v>-243585.3275115674</v>
       </c>
       <c r="D6" t="n">
-        <v>-243580.9139336995</v>
+        <v>-243585.3275115676</v>
       </c>
       <c r="E6" t="n">
-        <v>-1030875.434435624</v>
+        <v>-1031228.398405094</v>
       </c>
       <c r="F6" t="n">
-        <v>22034.56779326151</v>
+        <v>21816.80453741854</v>
       </c>
       <c r="G6" t="n">
-        <v>3503.381061959386</v>
+        <v>3493.740794534609</v>
       </c>
       <c r="H6" t="n">
-        <v>41393.5870370121</v>
+        <v>41383.94676958721</v>
       </c>
       <c r="I6" t="n">
-        <v>36994.6131221023</v>
+        <v>36994.61312210227</v>
       </c>
       <c r="J6" t="n">
-        <v>40314.07265678298</v>
+        <v>40314.07265678294</v>
       </c>
       <c r="K6" t="n">
-        <v>40314.07265678298</v>
+        <v>40314.07265678294</v>
       </c>
       <c r="L6" t="n">
         <v>2423.866681730229</v>
       </c>
       <c r="M6" t="n">
-        <v>-165423.1588917814</v>
+        <v>-165423.1588917812</v>
       </c>
       <c r="N6" t="n">
-        <v>-2564.597630638309</v>
+        <v>-2564.59763063812</v>
       </c>
       <c r="O6" t="n">
-        <v>40314.07265678275</v>
+        <v>40314.07265678281</v>
       </c>
       <c r="P6" t="n">
-        <v>40314.0726567829</v>
+        <v>40314.07265678297</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="H2" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I2" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="J2" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="K2" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="L2" t="n">
         <v>47.36275746881589</v>
       </c>
       <c r="M2" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="N2" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="O2" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="P2" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
     </row>
     <row r="3">
@@ -26793,10 +26793,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>825.5775651617323</v>
+        <v>825.5775651617322</v>
       </c>
       <c r="F4" t="n">
         <v>1000.64470878992</v>
@@ -26808,10 +26808,10 @@
         <v>1000.64470878992</v>
       </c>
       <c r="I4" t="n">
-        <v>1013.12758729399</v>
+        <v>1013.127587293989</v>
       </c>
       <c r="J4" t="n">
-        <v>1013.12758729399</v>
+        <v>1013.127587293989</v>
       </c>
       <c r="K4" t="n">
         <v>1013.127587293989</v>
@@ -26826,10 +26826,10 @@
         <v>1013.127587293989</v>
       </c>
       <c r="O4" t="n">
-        <v>1013.12758729399</v>
+        <v>1013.127587293989</v>
       </c>
       <c r="P4" t="n">
-        <v>1013.12758729399</v>
+        <v>1013.127587293989</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.705851198739823e-13</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>825.5775651617323</v>
+        <v>825.5775651617314</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0671436281876</v>
+        <v>175.0671436281878</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.48287850406962</v>
+        <v>12.48287850406939</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>825.5775651617322</v>
+        <v>825.5775651617313</v>
       </c>
       <c r="N4" t="n">
-        <v>175.0671436281876</v>
+        <v>175.0671436281878</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.705851198739823e-13</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>825.5775651617323</v>
+        <v>825.5775651617314</v>
       </c>
       <c r="N4" t="n">
-        <v>175.0671436281876</v>
+        <v>175.0671436281878</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>9.99069921454187</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27950,10 +27950,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141363</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0.7465913262571156</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>100.1578341526424</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>171.6831711038371</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588211</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735105771</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28068,7 +28068,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238273</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="C17" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="D17" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="E17" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="F17" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="G17" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="H17" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="I17" t="n">
         <v>42.31348951888498</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="T17" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="U17" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="V17" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="W17" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="X17" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="C19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="D19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="E19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="F19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="G19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="H19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="I19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="J19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="K19" t="n">
-        <v>47.36275746881617</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="L19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="M19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="N19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="O19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="P19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="R19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="S19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="T19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="U19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="V19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="W19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="X19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I20" t="n">
         <v>42.31348951888498</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="J22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="K22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="L22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="M22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="N22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="O22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881614</v>
       </c>
       <c r="P22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.36275746881573</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="R22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="S22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C23" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D23" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E23" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F23" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G23" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H23" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I23" t="n">
         <v>42.31348951888498</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T23" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U23" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V23" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W23" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X23" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="J25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="K25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="L25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="M25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="N25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="O25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="P25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881648</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="R25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="S25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C26" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D26" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E26" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F26" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G26" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H26" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I26" t="n">
         <v>42.31348951888498</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T26" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U26" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V26" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W26" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X26" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="J28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="K28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="L28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="M28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="N28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="O28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="P28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="R28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="S28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I29" t="n">
         <v>42.31348951888498</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="J31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="K31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="L31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="M31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="N31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="O31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="P31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="R31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="S31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C35" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D35" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E35" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F35" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G35" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H35" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I35" t="n">
         <v>42.31348951888498</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T35" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U35" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V35" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W35" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X35" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="J37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688165</v>
       </c>
       <c r="K37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="L37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="M37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="N37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="O37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="P37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="R37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="S37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C38" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D38" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E38" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F38" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G38" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H38" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I38" t="n">
         <v>42.31348951888498</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T38" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U38" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V38" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W38" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X38" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="J40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="K40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="L40" t="n">
-        <v>47.36275746881574</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="M40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="N40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="O40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="P40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="R40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="S40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.36275746881592</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="C41" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="D41" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="E41" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="F41" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="G41" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="H41" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="I41" t="n">
         <v>42.31348951888498</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="T41" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="U41" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="V41" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="W41" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="X41" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="C43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="D43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="E43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="F43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="G43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="H43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="I43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="J43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="K43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="L43" t="n">
-        <v>47.36275746881648</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="M43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="N43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="O43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="P43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.3627574688158</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="R43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="S43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="T43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="U43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="V43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="W43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="X43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="C44" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="D44" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="E44" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="F44" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="G44" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="H44" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="I44" t="n">
         <v>42.31348951888498</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="T44" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="U44" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="V44" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="W44" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="X44" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="C46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="D46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="E46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="F46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="G46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="H46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="I46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="J46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="K46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="L46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="M46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="N46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="O46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="P46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="R46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="S46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="T46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="U46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="V46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="W46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="X46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881593</v>
       </c>
     </row>
   </sheetData>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.512286751808978e-12</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>7.411702397479646e-13</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>239.0202350283402</v>
       </c>
       <c r="L12" t="n">
-        <v>374.1859390023458</v>
+        <v>368.1826485359479</v>
       </c>
       <c r="M12" t="n">
-        <v>449.2041768810325</v>
+        <v>455.2074673474299</v>
       </c>
       <c r="N12" t="n">
         <v>475.6474615779117</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>99.661014308793</v>
+        <v>93.65772384239551</v>
       </c>
       <c r="K15" t="n">
-        <v>239.0202350283402</v>
+        <v>245.0235254947376</v>
       </c>
       <c r="L15" t="n">
         <v>368.1826485359479</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>358.2620718119207</v>
+        <v>282.5304925036551</v>
       </c>
       <c r="K17" t="n">
         <v>334.7610119484349</v>
@@ -35899,7 +35899,7 @@
         <v>504.8339611139644</v>
       </c>
       <c r="P17" t="n">
-        <v>642.0817391103797</v>
+        <v>717.8133184186454</v>
       </c>
       <c r="Q17" t="n">
         <v>461.0461305257749</v>
@@ -35969,7 +35969,7 @@
         <v>368.1826485359479</v>
       </c>
       <c r="M18" t="n">
-        <v>455.20746734743</v>
+        <v>449.2041768810325</v>
       </c>
       <c r="N18" t="n">
         <v>475.6474615779117</v>
@@ -35984,7 +35984,7 @@
         <v>157.9290323396665</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>6.003290466397363</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.33527431154533</v>
+        <v>92.33527431154536</v>
       </c>
       <c r="K19" t="n">
-        <v>252.4147375654176</v>
+        <v>252.4147375654173</v>
       </c>
       <c r="L19" t="n">
         <v>365.8460027463706</v>
@@ -36051,10 +36051,10 @@
         <v>393.6527486997799</v>
       </c>
       <c r="N19" t="n">
-        <v>390.9082582417206</v>
+        <v>390.9082582417207</v>
       </c>
       <c r="O19" t="n">
-        <v>348.5045556059218</v>
+        <v>348.5045556059219</v>
       </c>
       <c r="P19" t="n">
         <v>281.2833247506679</v>
@@ -36121,7 +36121,7 @@
         <v>358.2620718119207</v>
       </c>
       <c r="K20" t="n">
-        <v>334.7610119484349</v>
+        <v>658.9064245195997</v>
       </c>
       <c r="L20" t="n">
         <v>452.5751438428105</v>
@@ -36136,13 +36136,13 @@
         <v>504.8339611139644</v>
       </c>
       <c r="P20" t="n">
-        <v>642.0817391103797</v>
+        <v>595.9677370721017</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.0461305257749</v>
+        <v>248.7311398658702</v>
       </c>
       <c r="R20" t="n">
-        <v>124.1294907673997</v>
+        <v>58.41307089441727</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>475.6474615779117</v>
       </c>
       <c r="O21" t="n">
-        <v>412.6802644950243</v>
+        <v>418.6835549614218</v>
       </c>
       <c r="P21" t="n">
         <v>311.6839450513654</v>
@@ -36221,7 +36221,7 @@
         <v>157.9290323396665</v>
       </c>
       <c r="R21" t="n">
-        <v>6.003290466397363</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36291,13 +36291,13 @@
         <v>390.9082582417206</v>
       </c>
       <c r="O22" t="n">
-        <v>348.5045556059218</v>
+        <v>348.5045556059221</v>
       </c>
       <c r="P22" t="n">
         <v>281.2833247506679</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.0393744579667</v>
+        <v>125.0393744579668</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>504.8339611139644</v>
       </c>
       <c r="P23" t="n">
-        <v>691.5088943992207</v>
+        <v>691.5088943992198</v>
       </c>
       <c r="Q23" t="n">
         <v>461.0461305257749</v>
@@ -36455,10 +36455,10 @@
         <v>311.6839450513654</v>
       </c>
       <c r="Q24" t="n">
-        <v>157.9290323396665</v>
+        <v>163.9323228060643</v>
       </c>
       <c r="R24" t="n">
-        <v>6.003290466397822</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>365.8460027463706</v>
       </c>
       <c r="M25" t="n">
-        <v>393.6527486997798</v>
+        <v>393.6527486997799</v>
       </c>
       <c r="N25" t="n">
         <v>390.9082582417206</v>
@@ -36531,7 +36531,7 @@
         <v>348.5045556059218</v>
       </c>
       <c r="P25" t="n">
-        <v>281.2833247506679</v>
+        <v>281.2833247506685</v>
       </c>
       <c r="Q25" t="n">
         <v>125.0393744579668</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>189.165456639847</v>
+        <v>358.2620718119207</v>
       </c>
       <c r="K26" t="n">
-        <v>334.7610119484349</v>
+        <v>658.9064245195997</v>
       </c>
       <c r="L26" t="n">
         <v>452.5751438428105</v>
       </c>
       <c r="M26" t="n">
-        <v>985.0799136640843</v>
+        <v>535.5663801712518</v>
       </c>
       <c r="N26" t="n">
         <v>548.8928166237063</v>
       </c>
       <c r="O26" t="n">
-        <v>504.8339611139644</v>
+        <v>688.4978233547615</v>
       </c>
       <c r="P26" t="n">
-        <v>411.0919760784616</v>
+        <v>396.0146102471627</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.0461305257749</v>
+        <v>248.7311398658702</v>
       </c>
       <c r="R26" t="n">
         <v>124.1294907673997</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>93.65772384239551</v>
+        <v>99.66101430879333</v>
       </c>
       <c r="K27" t="n">
         <v>239.0202350283402</v>
@@ -36680,7 +36680,7 @@
         <v>368.1826485359479</v>
       </c>
       <c r="M27" t="n">
-        <v>455.2074673474303</v>
+        <v>449.2041768810325</v>
       </c>
       <c r="N27" t="n">
         <v>475.6474615779117</v>
@@ -36759,7 +36759,7 @@
         <v>365.8460027463706</v>
       </c>
       <c r="M28" t="n">
-        <v>393.6527486997798</v>
+        <v>393.6527486997799</v>
       </c>
       <c r="N28" t="n">
         <v>390.9082582417206</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>358.2620718119207</v>
+        <v>331.9576477924959</v>
       </c>
       <c r="K29" t="n">
         <v>334.7610119484349</v>
@@ -36838,7 +36838,7 @@
         <v>452.5751438428105</v>
       </c>
       <c r="M29" t="n">
-        <v>985.0799136640843</v>
+        <v>535.5663801712518</v>
       </c>
       <c r="N29" t="n">
         <v>548.8928166237063</v>
@@ -36847,10 +36847,10 @@
         <v>504.8339611139644</v>
       </c>
       <c r="P29" t="n">
-        <v>396.0146102471627</v>
+        <v>717.8133184186454</v>
       </c>
       <c r="Q29" t="n">
-        <v>307.0268811850001</v>
+        <v>461.0461305257749</v>
       </c>
       <c r="R29" t="n">
         <v>124.1294907673997</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>93.65772384239551</v>
+        <v>99.66101430879331</v>
       </c>
       <c r="K30" t="n">
-        <v>245.023525494738</v>
+        <v>239.0202350283402</v>
       </c>
       <c r="L30" t="n">
         <v>368.1826485359479</v>
@@ -36996,7 +36996,7 @@
         <v>365.8460027463706</v>
       </c>
       <c r="M31" t="n">
-        <v>393.6527486997798</v>
+        <v>393.6527486997799</v>
       </c>
       <c r="N31" t="n">
         <v>390.9082582417206</v>
@@ -37069,7 +37069,7 @@
         <v>358.2620718119207</v>
       </c>
       <c r="K32" t="n">
-        <v>658.9064245195997</v>
+        <v>334.7610119484349</v>
       </c>
       <c r="L32" t="n">
         <v>452.5751438428105</v>
@@ -37084,13 +37084,13 @@
         <v>504.8339611139644</v>
       </c>
       <c r="P32" t="n">
-        <v>396.0146102471627</v>
+        <v>717.8133184186454</v>
       </c>
       <c r="Q32" t="n">
-        <v>432.3950021066681</v>
+        <v>461.0461305257749</v>
       </c>
       <c r="R32" t="n">
-        <v>124.1294907673997</v>
+        <v>97.82506674797433</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>239.0202350283402</v>
       </c>
       <c r="L33" t="n">
-        <v>374.1859390023458</v>
+        <v>368.1826485359479</v>
       </c>
       <c r="M33" t="n">
         <v>449.2041768810325</v>
@@ -37163,7 +37163,7 @@
         <v>412.6802644950243</v>
       </c>
       <c r="P33" t="n">
-        <v>311.6839450513654</v>
+        <v>317.6872355177633</v>
       </c>
       <c r="Q33" t="n">
         <v>157.9290323396665</v>
@@ -37236,7 +37236,7 @@
         <v>393.6527486997799</v>
       </c>
       <c r="N34" t="n">
-        <v>390.9082582417205</v>
+        <v>390.9082582417206</v>
       </c>
       <c r="O34" t="n">
         <v>348.5045556059218</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>189.165456639847</v>
+        <v>331.957647792495</v>
       </c>
       <c r="K35" t="n">
-        <v>658.9064245195997</v>
+        <v>334.7610119484349</v>
       </c>
       <c r="L35" t="n">
         <v>452.5751438428105</v>
@@ -37324,10 +37324,10 @@
         <v>717.8133184186454</v>
       </c>
       <c r="Q35" t="n">
-        <v>345.4093289802407</v>
+        <v>461.0461305257749</v>
       </c>
       <c r="R35" t="n">
-        <v>58.41307089441727</v>
+        <v>124.1294907673997</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37397,13 +37397,13 @@
         <v>475.6474615779117</v>
       </c>
       <c r="O36" t="n">
-        <v>412.6802644950243</v>
+        <v>418.6835549614223</v>
       </c>
       <c r="P36" t="n">
         <v>311.6839450513654</v>
       </c>
       <c r="Q36" t="n">
-        <v>163.9323228060643</v>
+        <v>157.9290323396665</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.33527431154536</v>
+        <v>92.33527431154594</v>
       </c>
       <c r="K37" t="n">
         <v>252.4147375654173</v>
@@ -37473,16 +37473,16 @@
         <v>393.6527486997799</v>
       </c>
       <c r="N37" t="n">
-        <v>390.9082582417207</v>
+        <v>390.9082582417206</v>
       </c>
       <c r="O37" t="n">
-        <v>348.5045556059219</v>
+        <v>348.5045556059218</v>
       </c>
       <c r="P37" t="n">
         <v>281.2833247506679</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.0393744579669</v>
+        <v>125.0393744579668</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>189.165456639847</v>
+        <v>358.2620718119207</v>
       </c>
       <c r="K38" t="n">
         <v>334.7610119484349</v>
       </c>
       <c r="L38" t="n">
-        <v>870.236358393261</v>
+        <v>452.5751438428105</v>
       </c>
       <c r="M38" t="n">
         <v>535.5663801712518</v>
@@ -37555,16 +37555,16 @@
         <v>548.8928166237063</v>
       </c>
       <c r="O38" t="n">
-        <v>829.7950564205318</v>
+        <v>504.8339611139644</v>
       </c>
       <c r="P38" t="n">
-        <v>396.0146102471627</v>
+        <v>691.5088943992198</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.7311398658702</v>
+        <v>461.0461305257749</v>
       </c>
       <c r="R38" t="n">
-        <v>58.41307089441727</v>
+        <v>124.1294907673997</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>368.1826485359479</v>
       </c>
       <c r="M39" t="n">
-        <v>449.2041768810325</v>
+        <v>455.2074673474303</v>
       </c>
       <c r="N39" t="n">
         <v>475.6474615779117</v>
@@ -37643,7 +37643,7 @@
         <v>157.9290323396665</v>
       </c>
       <c r="R39" t="n">
-        <v>6.003290466397822</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.33527431154536</v>
+        <v>92.33527431154533</v>
       </c>
       <c r="K40" t="n">
         <v>252.4147375654173</v>
       </c>
       <c r="L40" t="n">
-        <v>365.8460027463705</v>
+        <v>365.8460027463706</v>
       </c>
       <c r="M40" t="n">
         <v>393.6527486997799</v>
       </c>
       <c r="N40" t="n">
-        <v>390.9082582417207</v>
+        <v>390.9082582417206</v>
       </c>
       <c r="O40" t="n">
-        <v>348.5045556059219</v>
+        <v>348.5045556059218</v>
       </c>
       <c r="P40" t="n">
         <v>281.2833247506679</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.0393744579669</v>
+        <v>125.0393744579668</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>504.8339611139644</v>
       </c>
       <c r="P41" t="n">
-        <v>691.5088943992216</v>
+        <v>691.5088943992198</v>
       </c>
       <c r="Q41" t="n">
         <v>461.0461305257749</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.33527431154533</v>
+        <v>92.33527431154536</v>
       </c>
       <c r="K43" t="n">
         <v>252.4147375654173</v>
       </c>
       <c r="L43" t="n">
-        <v>365.8460027463712</v>
+        <v>365.8460027463706</v>
       </c>
       <c r="M43" t="n">
         <v>393.6527486997799</v>
       </c>
       <c r="N43" t="n">
-        <v>390.9082582417206</v>
+        <v>390.9082582417207</v>
       </c>
       <c r="O43" t="n">
-        <v>348.5045556059218</v>
+        <v>348.5045556059219</v>
       </c>
       <c r="P43" t="n">
-        <v>281.2833247506679</v>
+        <v>281.2833247506678</v>
       </c>
       <c r="Q43" t="n">
         <v>125.0393744579668</v>
@@ -38032,7 +38032,7 @@
         <v>504.8339611139644</v>
       </c>
       <c r="P44" t="n">
-        <v>691.5088943992216</v>
+        <v>691.5088943992198</v>
       </c>
       <c r="Q44" t="n">
         <v>461.0461305257749</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.33527431154536</v>
+        <v>92.33527431154538</v>
       </c>
       <c r="K46" t="n">
         <v>252.4147375654173</v>
@@ -38184,7 +38184,7 @@
         <v>393.6527486997799</v>
       </c>
       <c r="N46" t="n">
-        <v>390.9082582417207</v>
+        <v>390.9082582417206</v>
       </c>
       <c r="O46" t="n">
         <v>348.5045556059219</v>
@@ -38193,7 +38193,7 @@
         <v>281.2833247506679</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.0393744579668</v>
+        <v>125.0393744579669</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
